--- a/metro.xlsx
+++ b/metro.xlsx
@@ -5,16 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilya1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilya1\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FFE9A5-C612-4A68-9D81-6F807C803511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD70C836-3EC6-42D0-ADFB-9477784010F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43365" yWindow="3585" windowWidth="18420" windowHeight="17625" xr2:uid="{15FEA831-5FF9-4713-ACD7-DC16FC684C07}"/>
+    <workbookView xWindow="1470" yWindow="2430" windowWidth="29550" windowHeight="15945" xr2:uid="{15FEA831-5FF9-4713-ACD7-DC16FC684C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$C$30</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2:$D$30</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$30</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -64,27 +71,6 @@
     <t>382, 387</t>
   </si>
   <si>
-    <t>387, 391</t>
-  </si>
-  <si>
-    <t>391, 396</t>
-  </si>
-  <si>
-    <t>396, 401</t>
-  </si>
-  <si>
-    <t>401, 406</t>
-  </si>
-  <si>
-    <t>406, 410</t>
-  </si>
-  <si>
-    <t>410, 415</t>
-  </si>
-  <si>
-    <t>415, 420</t>
-  </si>
-  <si>
     <t>0.069</t>
   </si>
   <si>
@@ -94,32 +80,104 @@
     <t xml:space="preserve"> 0.1034</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.2069</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.069</t>
   </si>
   <si>
-    <t>0.0144</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0289</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0433</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0144</t>
+    <t>2, 4, 4, 3, 3, 7, 2, 2, 1</t>
+  </si>
+  <si>
+    <t>377, 382, 387, 392, 397, 402, 407, 412, 417, 420</t>
+  </si>
+  <si>
+    <t>387, 392</t>
+  </si>
+  <si>
+    <t>392, 397</t>
+  </si>
+  <si>
+    <t>397, 402</t>
+  </si>
+  <si>
+    <t>402, 407</t>
+  </si>
+  <si>
+    <t>407, 412</t>
+  </si>
+  <si>
+    <t>412, 417</t>
+  </si>
+  <si>
+    <t>417, 420</t>
+  </si>
+  <si>
+    <t>0.0714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1429</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0357</t>
+  </si>
+  <si>
+    <t>0.0143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1724</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2414</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0345</t>
+  </si>
+  <si>
+    <t>0.0138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0483</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0069</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +205,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,13 +234,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +265,776 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{16916F8F-77DD-4957-8C6D-31CDBD119A4D}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>i</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>p*10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>202824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A25578-DB20-9406-F3DB-02B33AC4F1EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6622677" y="651059"/>
+              <a:ext cx="10555941" cy="6767235"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B1066-3585-41B6-A526-CF1FFDB0B0C8}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +1350,7 @@
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,525 +1373,662 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>377</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>380</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>385</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>385</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>386</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>386</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>388</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>388</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>390</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>392</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>392</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>393</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>395</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>397</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>400</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>400</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>402</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>404</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>405</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>405</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>405</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>405</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>406</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>407</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>408</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>410</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>413</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>417</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>420</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
+  <mergeCells count="40">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:G7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>